--- a/data/trans_orig/Q19B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Edad-trans_orig.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,33; 24,8</t>
+          <t>19,41; 25,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,57; 29,39</t>
+          <t>22,27; 29,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,35; 24,51</t>
+          <t>18,32; 24,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,93; 23,42</t>
+          <t>17,9; 23,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,35; 25,25</t>
+          <t>19,36; 25,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,7; 22,5</t>
+          <t>17,67; 22,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,56; 23,32</t>
+          <t>19,25; 23,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,72; 26,57</t>
+          <t>21,65; 26,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,65; 22,7</t>
+          <t>18,43; 22,7</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,94; 29,42</t>
+          <t>24,14; 29,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,2; 34,75</t>
+          <t>27,03; 34,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,73; 29,15</t>
+          <t>22,71; 28,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,28; 24,96</t>
+          <t>20,1; 24,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,08; 25,03</t>
+          <t>20,22; 25,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,16; 22,94</t>
+          <t>18,24; 22,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,94; 26,39</t>
+          <t>22,8; 26,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,66; 29,07</t>
+          <t>24,56; 29,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,25; 25,15</t>
+          <t>21,15; 25,16</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,08; 33,07</t>
+          <t>25,25; 33,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,53; 36,83</t>
+          <t>29,57; 37,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,63; 34,28</t>
+          <t>26,55; 33,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,1; 29,55</t>
+          <t>24,09; 29,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,16; 29,69</t>
+          <t>23,23; 29,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,29; 24,44</t>
+          <t>20,4; 24,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,24; 29,81</t>
+          <t>25,54; 30,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,48; 32,5</t>
+          <t>27,1; 31,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,13; 28,42</t>
+          <t>24,3; 28,53</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,63; 41,95</t>
+          <t>30,11; 41,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,19; 40,95</t>
+          <t>31,21; 40,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,43; 39,32</t>
+          <t>28,5; 39,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,79; 40,37</t>
+          <t>28,28; 39,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,86; 37,75</t>
+          <t>30,03; 38,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,73; 34,65</t>
+          <t>25,84; 35,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,8; 38,87</t>
+          <t>30,74; 38,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,74; 38,24</t>
+          <t>31,72; 37,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,42; 35,49</t>
+          <t>28,24; 35,24</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,77; 45,35</t>
+          <t>33,0; 46,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,24; 63,97</t>
+          <t>45,35; 63,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,55; 61,47</t>
+          <t>35,98; 62,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42,34; 61,34</t>
+          <t>42,27; 64,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,36; 56,97</t>
+          <t>37,62; 56,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,81; 35,81</t>
+          <t>24,77; 35,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>38,98; 51,71</t>
+          <t>39,18; 51,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,38; 56,64</t>
+          <t>43,5; 56,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,9; 47,86</t>
+          <t>31,71; 45,95</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>55,29; 76,16</t>
+          <t>55,14; 76,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>62,54; 86,33</t>
+          <t>63,11; 87,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,36; 74,12</t>
+          <t>45,65; 71,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>55,45; 83,03</t>
+          <t>56,49; 83,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,15; 63,89</t>
+          <t>43,25; 62,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,86; 40,83</t>
+          <t>28,08; 41,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>57,9; 75,02</t>
+          <t>58,24; 75,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>55,25; 69,24</t>
+          <t>55,43; 70,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>38,56; 53,64</t>
+          <t>38,93; 53,94</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>99,33; 139,69</t>
+          <t>98,61; 135,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>80,93; 117,0</t>
+          <t>80,59; 116,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>53,08; 75,55</t>
+          <t>53,19; 76,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,99; 111,84</t>
+          <t>85,12; 113,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>80,77; 112,9</t>
+          <t>81,04; 110,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,39; 73,37</t>
+          <t>43,38; 73,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,33; 117,0</t>
+          <t>92,92; 116,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>83,56; 106,06</t>
+          <t>85,28; 108,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49,84; 69,62</t>
+          <t>50,67; 69,37</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>35,07; 39,78</t>
+          <t>34,89; 39,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40,54; 45,91</t>
+          <t>40,72; 45,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,03; 38,76</t>
+          <t>33,03; 38,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>37,53; 43,15</t>
+          <t>37,6; 43,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>36,85; 42,23</t>
+          <t>36,97; 42,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,65; 30,99</t>
+          <t>26,78; 31,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>36,89; 40,53</t>
+          <t>36,9; 40,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>39,55; 43,51</t>
+          <t>39,6; 43,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,69; 34,12</t>
+          <t>30,52; 33,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q19B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q19B_R-Edad-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo medio en meses desde la última vez que acudió al dentista, protésico o higienista dental</t>
+          <t>Tiempo medio en meses desde la última consulta al dentista, protésico o higienista dental</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
